--- a/07-прогнозы/1-прогноз.xlsx
+++ b/07-прогнозы/1-прогноз.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Дата</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>Прогноз</t>
+  </si>
+  <si>
+    <t>ФОРМУЛА =ПРЕДСКАЗ(B38;$C$2:$C$37;$B$2:$B$37)</t>
+  </si>
+  <si>
+    <t>ФОРМУЛА =ТЕНДЕНЦИЯ($C$2:$C$37;$B$2:$B$37;B38;ИСТИНА)</t>
+  </si>
+  <si>
+    <t>ФОРМУЛА =РОСТ($C$2:$C$37;$B$2:$B$37;B38;ИСТИНА)</t>
   </si>
 </sst>
 </file>
@@ -431,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,7 +452,7 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43101</v>
       </c>
@@ -468,8 +477,11 @@
         <v>74439.899999999994</v>
       </c>
       <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43132</v>
       </c>
@@ -479,8 +491,11 @@
       <c r="C3" s="3">
         <v>73343.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43160</v>
       </c>
@@ -490,8 +505,11 @@
       <c r="C4" s="3">
         <v>72517.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43191</v>
       </c>
@@ -502,7 +520,7 @@
         <v>74764.800000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43221</v>
       </c>
@@ -513,7 +531,7 @@
         <v>78175.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43252</v>
       </c>
@@ -524,7 +542,7 @@
         <v>81058.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43282</v>
       </c>
@@ -535,7 +553,7 @@
         <v>85096.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43313</v>
       </c>
@@ -546,7 +564,7 @@
         <v>87902.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43344</v>
       </c>
@@ -557,7 +575,7 @@
         <v>86942.7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43374</v>
       </c>
@@ -568,7 +586,7 @@
         <v>86117.4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43405</v>
       </c>
@@ -579,7 +597,7 @@
         <v>85218.6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43435</v>
       </c>
@@ -590,7 +608,7 @@
         <v>84170.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43466</v>
       </c>
@@ -601,7 +619,7 @@
         <v>83488.800000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43497</v>
       </c>
@@ -612,7 +630,7 @@
         <v>82731.600000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43525</v>
       </c>
@@ -881,15 +899,15 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <f>FORECAST(B39,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" ref="D38:D61" si="0">FORECAST(B39,$C$2:$C$37,$B$2:$B$37)</f>
         <v>108982.84041184041</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E61" si="0">TREND($C$2:$C$37,$B$2:$B$37,B39,TRUE)</f>
+        <f t="shared" ref="E39:E61" si="1">TREND($C$2:$C$37,$B$2:$B$37,B39,TRUE)</f>
         <v>108982.84041184041</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F61" si="1">GROWTH($C$2:$C$37,$B$2:$B$37,B39,TRUE)</f>
+        <f t="shared" ref="F39:F61" si="2">GROWTH($C$2:$C$37,$B$2:$B$37,B39,TRUE)</f>
         <v>110383.56467328481</v>
       </c>
     </row>
@@ -898,15 +916,15 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <f>FORECAST(B40,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>109905.15701415701</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109905.15701415703</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111518.60040636617</v>
       </c>
     </row>
@@ -915,15 +933,15 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <f>FORECAST(B41,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>110827.47361647361</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110827.47361647362</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112665.30731639477</v>
       </c>
     </row>
@@ -932,15 +950,15 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <f>FORECAST(B42,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>111749.79021879022</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111749.79021879024</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113823.80541401645</v>
       </c>
     </row>
@@ -949,15 +967,15 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <f>FORECAST(B43,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>112672.10682110682</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112672.10682110683</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114994.21594390464</v>
       </c>
     </row>
@@ -966,15 +984,15 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <f>FORECAST(B44,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>113594.42342342343</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113594.42342342343</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116176.66139744953</v>
       </c>
     </row>
@@ -983,15 +1001,15 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <f>FORECAST(B45,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>114516.74002574003</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>114516.74002574003</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117371.26552557759</v>
       </c>
     </row>
@@ -1000,15 +1018,15 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <f>FORECAST(B46,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>115439.05662805663</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115439.05662805664</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118578.15335170297</v>
       </c>
     </row>
@@ -1017,15 +1035,15 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <f>FORECAST(B47,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>116361.37323037322</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116361.37323037324</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119797.45118481197</v>
       </c>
     </row>
@@ -1034,15 +1052,15 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <f>FORECAST(B48,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>117283.68983268982</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117283.68983268985</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121029.2866326822</v>
       </c>
     </row>
@@ -1051,15 +1069,15 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <f>FORECAST(B49,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>118206.00643500643</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>118206.00643500645</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122273.78861523764</v>
       </c>
     </row>
@@ -1068,15 +1086,15 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <f>FORECAST(B50,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>119128.32303732305</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119128.32303732305</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123531.08737804084</v>
       </c>
     </row>
@@ -1085,15 +1103,15 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <f>FORECAST(B51,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>120050.63963963964</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120050.63963963964</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124801.31450592418</v>
       </c>
     </row>
@@ -1102,15 +1120,15 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <f>FORECAST(B52,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>120972.95624195624</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120972.95624195626</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126084.60293676094</v>
       </c>
     </row>
@@ -1119,15 +1137,15 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <f>FORECAST(B53,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>121895.27284427284</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121895.27284427285</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127381.08697537828</v>
       </c>
     </row>
@@ -1136,15 +1154,15 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <f>FORECAST(B54,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>122817.58944658944</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122817.58944658947</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128690.90230761304</v>
       </c>
     </row>
@@ -1153,15 +1171,15 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <f>FORECAST(B55,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>123739.90604890605</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>123739.90604890606</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130014.18601451234</v>
       </c>
     </row>
@@ -1170,15 +1188,15 @@
         <v>54</v>
       </c>
       <c r="D56">
-        <f>FORECAST(B56,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>124662.22265122266</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>124662.22265122266</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131351.07658667982</v>
       </c>
     </row>
@@ -1187,15 +1205,15 @@
         <v>55</v>
       </c>
       <c r="D57">
-        <f>FORECAST(B57,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>125584.53925353926</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125584.53925353926</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>132701.71393876988</v>
       </c>
     </row>
@@ -1204,15 +1222,15 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <f>FORECAST(B58,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>126506.85585585586</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126506.85585585587</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>134066.23942413044</v>
       </c>
     </row>
@@ -1221,15 +1239,15 @@
         <v>57</v>
       </c>
       <c r="D59">
-        <f>FORECAST(B59,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>127429.17245817246</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>127429.17245817247</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135444.7958495967</v>
       </c>
     </row>
@@ -1238,15 +1256,15 @@
         <v>58</v>
       </c>
       <c r="D60">
-        <f>FORECAST(B60,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>128351.48906048905</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128351.48906048908</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>136837.5274904368</v>
       </c>
     </row>
@@ -1255,15 +1273,15 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <f>FORECAST(B61,$C$2:$C$37,$B$2:$B$37)</f>
+        <f t="shared" si="0"/>
         <v>129273.80566280567</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129273.80566280568</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138244.58010545108</v>
       </c>
     </row>
